--- a/resource/rules_db.xlsx
+++ b/resource/rules_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workplace\WonderStewEngine_Developper\RuleNavi\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workplace\WonderStewEngine_Developper\RuleNavi\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B39A74-500C-4F1C-BB7A-2194F5B80FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DE9A24-3DD0-4BF8-A4AE-904FEEAB9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="1" xr2:uid="{0E140ECB-7E7B-4702-8682-6825D1F746A4}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="2" xr2:uid="{0E140ECB-7E7B-4702-8682-6825D1F746A4}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;SQL&gt; " sheetId="31" r:id="rId1"/>
@@ -21759,8 +21759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F108CB-5ACD-428E-B362-4295CF9CA239}">
   <dimension ref="A2:S237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView topLeftCell="A159" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.65"/>
@@ -27860,8 +27860,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S1416"/>
   <sheetViews>
-    <sheetView topLeftCell="A706" workbookViewId="0">
-      <selection activeCell="B731" sqref="B731"/>
+    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
+      <selection activeCell="C957" sqref="C957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.65"/>
@@ -77036,8 +77036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8DA8B9-FC40-4B62-B01D-69E25410D1C4}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B55" sqref="B53:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.65"/>
@@ -77046,7 +77046,7 @@
     <col min="2" max="2" width="33.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
